--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2036193.7037846</v>
+        <v>1981241.814500504</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013173</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079586</v>
+        <v>11497228.11079585</v>
       </c>
     </row>
     <row r="9">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.7134668821566</v>
+        <v>251.4502472656485</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3.329915919762126</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.59641470936502</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.4285771158712</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>73.3534034990646</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>417.3985592667085</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>104.0024271027444</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>250.922243233817</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>130.2646119085758</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.329915919761908</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
         <v>237.1773944157285</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>76.53519509961438</v>
       </c>
       <c r="T16" t="n">
         <v>221.0023972007068</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>76.5351950996143</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>138.3951870447231</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>142.0125328254712</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,19 +1925,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3.862948261217194</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>15.71916615484799</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -2046,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2101074720030162</v>
+        <v>76.53519509961436</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>207.0716324031971</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>231.5391046246428</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>38.44565182184051</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>90.75898579008607</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
         <v>237.1773944157285</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>224.1841888012565</v>
+        <v>52.42857711587127</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>73.35340349906456</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>36.19713713936556</v>
       </c>
       <c r="V23" t="n">
-        <v>35.7304347315126</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>90.22595344863068</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6320838744861</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
         <v>237.1773944157285</v>
@@ -2459,7 +2459,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>123.1434003800101</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>131.0804113283488</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>218.579758205472</v>
+        <v>300.5273166365023</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>194.7117974622146</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>3.329915919761465</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>43.89233596156676</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>123.14340038001</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>76.53519509961436</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>199.4448793843142</v>
       </c>
       <c r="G29" t="n">
         <v>417.3985592667085</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>204.7418097272718</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>3.329915919761908</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>144.8407193933337</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>52.42857711587127</v>
       </c>
       <c r="S31" t="n">
-        <v>2.474840865017023</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>36.43760337035185</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>240.4660086744117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>8.373183778873317</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>49.96370765612178</v>
       </c>
     </row>
     <row r="34">
@@ -3231,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>50.00010435294848</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>73.3534034990646</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>215.8723065020635</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>4.216722594182325</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
         <v>237.1773944157285</v>
@@ -3407,13 +3407,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>14.32501013152812</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>49.96370765612178</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.916258666856974</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>76.53519509961436</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>277.5761168424386</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>119.7132633034008</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>90.22595344863068</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.727105734424095</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3647,7 +3647,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>158.6107100818746</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>188.9625998440371</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>284.4411796224783</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>143.4660897531999</v>
+        <v>90.22595344863045</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>7.226885210985944</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.89828378116018</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>269.0562111640176</v>
+        <v>273.0908450562861</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3.329915919761683</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>38.04813570318086</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
@@ -4112,10 +4112,10 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
@@ -4124,7 +4124,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>137.4545982671966</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>52.42857711587138</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>988.2760455058774</v>
+        <v>642.0477282552808</v>
       </c>
       <c r="C11" t="n">
-        <v>988.2760455058774</v>
+        <v>288.3048016076254</v>
       </c>
       <c r="D11" t="n">
-        <v>988.2760455058774</v>
+        <v>288.3048016076254</v>
       </c>
       <c r="E11" t="n">
-        <v>628.9695133016787</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="F11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K11" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L11" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M11" t="n">
         <v>856.6460009292779</v>
@@ -5056,37 +5056,37 @@
         <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q11" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R11" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S11" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T11" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U11" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.732642722258</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="W11" t="n">
-        <v>1374.423083302291</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="X11" t="n">
-        <v>1374.423083302291</v>
+        <v>1028.194766051695</v>
       </c>
       <c r="Y11" t="n">
-        <v>988.2760455058774</v>
+        <v>642.0477282552808</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.19376440014</v>
+        <v>37.67820428854833</v>
       </c>
       <c r="C12" t="n">
-        <v>421.7814901331037</v>
+        <v>37.67820428854833</v>
       </c>
       <c r="D12" t="n">
-        <v>261.0013738941354</v>
+        <v>37.67820428854833</v>
       </c>
       <c r="E12" t="n">
-        <v>261.0013738941354</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="F12" t="n">
-        <v>100.5736576113795</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G12" t="n">
-        <v>100.5736576113795</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H12" t="n">
-        <v>100.5736576113795</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025867</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K12" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676438</v>
+        <v>304.6946924676441</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207054</v>
+        <v>679.5863020207057</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520716</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q12" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S12" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775051</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U12" t="n">
-        <v>1234.878304775051</v>
+        <v>995.3051791025989</v>
       </c>
       <c r="V12" t="n">
-        <v>1234.878304775051</v>
+        <v>752.225461006233</v>
       </c>
       <c r="W12" t="n">
-        <v>1234.878304775051</v>
+        <v>482.8268917365243</v>
       </c>
       <c r="X12" t="n">
-        <v>1015.370310391748</v>
+        <v>263.3188973532207</v>
       </c>
       <c r="Y12" t="n">
-        <v>789.7296173270752</v>
+        <v>37.67820428854833</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="C13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="D13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="E13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="F13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="K13" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N13" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S13" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="T13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="U13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="V13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="W13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="X13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444517</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1050.584219631688</v>
+        <v>797.1133588230673</v>
       </c>
       <c r="C14" t="n">
-        <v>1050.584219631688</v>
+        <v>797.1133588230673</v>
       </c>
       <c r="D14" t="n">
-        <v>1050.584219631688</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E14" t="n">
-        <v>1050.584219631688</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F14" t="n">
-        <v>643.3122502983405</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193753</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389722</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M14" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O14" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P14" t="n">
         <v>1650.639799716936</v>
@@ -5302,28 +5302,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S14" t="n">
-        <v>1519.054059427092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T14" t="n">
-        <v>1519.054059427092</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="U14" t="n">
-        <v>1519.054059427092</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="V14" t="n">
-        <v>1414.001102757653</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="W14" t="n">
-        <v>1414.001102757653</v>
+        <v>1050.570170170357</v>
       </c>
       <c r="X14" t="n">
-        <v>1050.584219631688</v>
+        <v>797.1133588230673</v>
       </c>
       <c r="Y14" t="n">
-        <v>1050.584219631688</v>
+        <v>797.1133588230673</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.4582728022992</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="C15" t="n">
-        <v>339.4582728022992</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="D15" t="n">
-        <v>207.8778567330307</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444516</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444516</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="G15" t="n">
         <v>34.31465285444516</v>
@@ -5357,52 +5357,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M15" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S15" t="n">
-        <v>1536.658373288803</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T15" t="n">
-        <v>1536.658373288803</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U15" t="n">
-        <v>1297.08524761635</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V15" t="n">
-        <v>1054.005529519984</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W15" t="n">
-        <v>784.6069602502752</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="X15" t="n">
-        <v>565.0989658669715</v>
+        <v>263.3188973532204</v>
       </c>
       <c r="Y15" t="n">
-        <v>339.4582728022992</v>
+        <v>37.6782042885481</v>
       </c>
     </row>
     <row r="16">
@@ -5439,43 +5439,43 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N16" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S16" t="n">
-        <v>334.857675380022</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="T16" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U16" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V16" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W16" t="n">
-        <v>111.6229307328435</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X16" t="n">
         <v>34.31465285444516</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>745.1801749823653</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="C17" t="n">
-        <v>745.1801749823653</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="D17" t="n">
-        <v>745.1801749823653</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E17" t="n">
-        <v>369.9489506776823</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
         <v>34.31465285444516</v>
@@ -5515,10 +5515,10 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602988</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K17" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L17" t="n">
         <v>525.528369138972</v>
@@ -5533,34 +5533,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q17" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R17" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S17" t="n">
-        <v>1519.054059427092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T17" t="n">
-        <v>1519.054059427092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U17" t="n">
-        <v>1266.493077207926</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V17" t="n">
-        <v>1123.046074353914</v>
+        <v>1286.106182960717</v>
       </c>
       <c r="W17" t="n">
-        <v>1123.046074353914</v>
+        <v>944.7966235407509</v>
       </c>
       <c r="X17" t="n">
-        <v>1123.046074353914</v>
+        <v>581.3797404147851</v>
       </c>
       <c r="Y17" t="n">
-        <v>1123.046074353914</v>
+        <v>581.3797404147851</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>504.9915189529294</v>
+        <v>38.21662079506859</v>
       </c>
       <c r="C18" t="n">
-        <v>504.9915189529294</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D18" t="n">
-        <v>344.2114027139611</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E18" t="n">
-        <v>344.2114027139611</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F18" t="n">
-        <v>183.7836864312052</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G18" t="n">
         <v>34.31465285444516</v>
@@ -5594,52 +5594,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K18" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L18" t="n">
-        <v>337.3144331656368</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M18" t="n">
-        <v>712.2060427186984</v>
+        <v>692.111394462885</v>
       </c>
       <c r="N18" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O18" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S18" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T18" t="n">
         <v>1413.952574208507</v>
       </c>
       <c r="U18" t="n">
-        <v>1398.074628597549</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V18" t="n">
-        <v>1398.074628597549</v>
+        <v>931.2997304396883</v>
       </c>
       <c r="W18" t="n">
-        <v>1128.67605932784</v>
+        <v>661.9011611699797</v>
       </c>
       <c r="X18" t="n">
-        <v>909.1680649445368</v>
+        <v>442.393166786676</v>
       </c>
       <c r="Y18" t="n">
-        <v>683.5273718798644</v>
+        <v>216.7524737220037</v>
       </c>
     </row>
     <row r="19">
@@ -5676,40 +5676,40 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L19" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P19" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q19" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R19" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S19" t="n">
-        <v>34.52688262414517</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T19" t="n">
-        <v>34.52688262414517</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U19" t="n">
-        <v>34.52688262414517</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V19" t="n">
-        <v>34.52688262414517</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W19" t="n">
         <v>34.31465285444516</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1204.385328156414</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="C20" t="n">
-        <v>1204.385328156414</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2013285178008</v>
+        <v>1050.69572995171</v>
       </c>
       <c r="E20" t="n">
-        <v>863.2013285178008</v>
+        <v>675.4645056470273</v>
       </c>
       <c r="F20" t="n">
-        <v>455.9293591844538</v>
+        <v>268.1925363136803</v>
       </c>
       <c r="G20" t="n">
         <v>34.31465285444516</v>
@@ -5752,25 +5752,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602988</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K20" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q20" t="n">
         <v>1715.732642722258</v>
@@ -5779,25 +5779,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T20" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="U20" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="V20" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="W20" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="X20" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="Y20" t="n">
-        <v>1413.548593210149</v>
+        <v>1391.879729590324</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.148644593678</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C21" t="n">
-        <v>73.148644593678</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D21" t="n">
         <v>34.31465285444516</v>
@@ -5831,52 +5831,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K21" t="n">
-        <v>215.5091216889814</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="L21" t="n">
-        <v>498.4142537443595</v>
+        <v>304.6946924676439</v>
       </c>
       <c r="M21" t="n">
-        <v>873.305863297421</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N21" t="n">
-        <v>1082.820066520716</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O21" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P21" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q21" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007117</v>
+        <v>1624.056899499949</v>
       </c>
       <c r="T21" t="n">
-        <v>1448.884598007117</v>
+        <v>1410.050606267884</v>
       </c>
       <c r="U21" t="n">
-        <v>1209.311472334664</v>
+        <v>1170.477480595431</v>
       </c>
       <c r="V21" t="n">
-        <v>966.2317542382978</v>
+        <v>927.3977624990649</v>
       </c>
       <c r="W21" t="n">
-        <v>696.8331849685891</v>
+        <v>657.9991932293563</v>
       </c>
       <c r="X21" t="n">
-        <v>477.3251905852854</v>
+        <v>438.4911988460526</v>
       </c>
       <c r="Y21" t="n">
-        <v>251.6844975206131</v>
+        <v>212.8505057813803</v>
       </c>
     </row>
     <row r="22">
@@ -5913,37 +5913,37 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N22" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S22" t="n">
-        <v>108.4089998231972</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="T22" t="n">
-        <v>108.4089998231972</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="U22" t="n">
-        <v>34.31465285444516</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="V22" t="n">
         <v>34.31465285444516</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>409.5458771591282</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="C23" t="n">
-        <v>409.5458771591282</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="D23" t="n">
-        <v>409.5458771591282</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="E23" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H23" t="n">
         <v>34.31465285444516</v>
@@ -5992,49 +5992,49 @@
         <v>79.26440887602973</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="U23" t="n">
-        <v>1195.201146295157</v>
+        <v>1460.822431020029</v>
       </c>
       <c r="V23" t="n">
-        <v>1159.109798081508</v>
+        <v>1460.822431020029</v>
       </c>
       <c r="W23" t="n">
-        <v>1159.109798081508</v>
+        <v>1119.512871600062</v>
       </c>
       <c r="X23" t="n">
-        <v>795.6929149555422</v>
+        <v>756.0959884740963</v>
       </c>
       <c r="Y23" t="n">
-        <v>409.5458771591282</v>
+        <v>369.9489506776823</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.5472138633866</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C24" t="n">
-        <v>153.1349395963503</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D24" t="n">
-        <v>153.1349395963503</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E24" t="n">
-        <v>153.1349395963503</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F24" t="n">
-        <v>153.1349395963503</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
         <v>34.31465285444516</v>
@@ -6068,52 +6068,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K24" t="n">
-        <v>215.5091216889814</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443595</v>
+        <v>337.3144331656369</v>
       </c>
       <c r="M24" t="n">
-        <v>873.305863297421</v>
+        <v>712.2060427186984</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520716</v>
+        <v>1115.43980721871</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P24" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q24" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T24" t="n">
-        <v>1448.884598007117</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U24" t="n">
-        <v>1209.311472334664</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V24" t="n">
-        <v>966.2317542382978</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W24" t="n">
-        <v>966.2317542382978</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="X24" t="n">
-        <v>746.7237598549941</v>
+        <v>351.0926726349061</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.0830667903217</v>
+        <v>125.4519795702337</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
         <v>34.31465285444516</v>
@@ -6150,49 +6150,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M25" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P25" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="S25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="T25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="U25" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V25" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255.102287405427</v>
+        <v>337.8775989519223</v>
       </c>
       <c r="C26" t="n">
-        <v>255.102287405427</v>
+        <v>337.8775989519223</v>
       </c>
       <c r="D26" t="n">
-        <v>255.102287405427</v>
+        <v>337.8775989519223</v>
       </c>
       <c r="E26" t="n">
-        <v>255.102287405427</v>
+        <v>337.8775989519223</v>
       </c>
       <c r="F26" t="n">
-        <v>255.102287405427</v>
+        <v>337.8775989519223</v>
       </c>
       <c r="G26" t="n">
         <v>34.31465285444516</v>
@@ -6226,52 +6226,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193753</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389723</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T26" t="n">
-        <v>1195.201146295157</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U26" t="n">
-        <v>942.6401640759908</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="V26" t="n">
-        <v>618.5191705313928</v>
+        <v>724.0246367483363</v>
       </c>
       <c r="W26" t="n">
-        <v>618.5191705313928</v>
+        <v>724.0246367483363</v>
       </c>
       <c r="X26" t="n">
-        <v>255.102287405427</v>
+        <v>724.0246367483363</v>
       </c>
       <c r="Y26" t="n">
-        <v>255.102287405427</v>
+        <v>337.8775989519223</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.67820428854765</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C27" t="n">
         <v>34.31465285444516</v>
@@ -6305,52 +6305,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K27" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L27" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M27" t="n">
-        <v>712.2060427186984</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S27" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775051</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025982</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V27" t="n">
-        <v>752.2254610062323</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W27" t="n">
-        <v>482.8268917365236</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="X27" t="n">
-        <v>263.31889735322</v>
+        <v>438.4911988460526</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.67820428854765</v>
+        <v>212.8505057813803</v>
       </c>
     </row>
     <row r="28">
@@ -6387,40 +6387,40 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L28" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M28" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R28" t="n">
-        <v>158.7019259655664</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S28" t="n">
-        <v>158.7019259655664</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T28" t="n">
-        <v>158.7019259655664</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W28" t="n">
         <v>34.31465285444516</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1150.856285470723</v>
+        <v>1352.315759596293</v>
       </c>
       <c r="C29" t="n">
-        <v>797.1133588230673</v>
+        <v>998.5728329486371</v>
       </c>
       <c r="D29" t="n">
-        <v>455.9293591844538</v>
+        <v>657.3888333100238</v>
       </c>
       <c r="E29" t="n">
-        <v>455.9293591844538</v>
+        <v>657.3888333100238</v>
       </c>
       <c r="F29" t="n">
         <v>455.9293591844538</v>
@@ -6463,16 +6463,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K29" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
@@ -6481,34 +6481,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S29" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T29" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U29" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V29" t="n">
-        <v>1150.856285470723</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W29" t="n">
-        <v>1150.856285470723</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X29" t="n">
-        <v>1150.856285470723</v>
+        <v>1352.315759596293</v>
       </c>
       <c r="Y29" t="n">
-        <v>1150.856285470723</v>
+        <v>1352.315759596293</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.8778567330307</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C30" t="n">
-        <v>207.8778567330307</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D30" t="n">
-        <v>207.8778567330307</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E30" t="n">
         <v>34.31465285444516</v>
@@ -6542,19 +6542,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K30" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="L30" t="n">
-        <v>317.2197849098233</v>
+        <v>337.3144331656369</v>
       </c>
       <c r="M30" t="n">
-        <v>692.1113944628848</v>
+        <v>712.2060427186984</v>
       </c>
       <c r="N30" t="n">
-        <v>1095.345158962896</v>
+        <v>1115.43980721871</v>
       </c>
       <c r="O30" t="n">
         <v>1395.953100567611</v>
@@ -6581,13 +6581,13 @@
         <v>752.2254610062328</v>
       </c>
       <c r="W30" t="n">
-        <v>605.9217040432694</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="X30" t="n">
-        <v>386.4137096599658</v>
+        <v>263.3188973532204</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.4137096599658</v>
+        <v>37.6782042885481</v>
       </c>
     </row>
     <row r="31">
@@ -6624,43 +6624,43 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L31" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M31" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P31" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R31" t="n">
-        <v>260.97555818097</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="S31" t="n">
-        <v>258.475718923377</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="T31" t="n">
-        <v>258.475718923377</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="U31" t="n">
-        <v>258.475718923377</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="V31" t="n">
-        <v>258.475718923377</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W31" t="n">
-        <v>258.475718923377</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X31" t="n">
         <v>34.31465285444516</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.31465285444516</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="C32" t="n">
-        <v>34.31465285444516</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="D32" t="n">
-        <v>34.31465285444516</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E32" t="n">
-        <v>34.31465285444516</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F32" t="n">
         <v>34.31465285444516</v>
@@ -6700,22 +6700,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P32" t="n">
         <v>1650.639799716936</v>
@@ -6724,28 +6724,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295158</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U32" t="n">
-        <v>942.6401640759913</v>
+        <v>1482.24839945704</v>
       </c>
       <c r="V32" t="n">
-        <v>618.5191705313932</v>
+        <v>1158.127405912442</v>
       </c>
       <c r="W32" t="n">
-        <v>277.2096111114267</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="X32" t="n">
-        <v>277.2096111114267</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.31465285444516</v>
+        <v>816.8178464924752</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>518.127006548759</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C33" t="n">
-        <v>518.127006548759</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D33" t="n">
-        <v>357.3468903097908</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E33" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F33" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G33" t="n">
         <v>34.31465285444516</v>
@@ -6779,16 +6779,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K33" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L33" t="n">
-        <v>304.6946924676443</v>
+        <v>304.6946924676439</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207058</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N33" t="n">
         <v>1082.820066520717</v>
@@ -6818,13 +6818,13 @@
         <v>752.2254610062328</v>
       </c>
       <c r="W33" t="n">
-        <v>752.2254610062328</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="X33" t="n">
-        <v>743.7676996134314</v>
+        <v>263.3188973532204</v>
       </c>
       <c r="Y33" t="n">
-        <v>518.127006548759</v>
+        <v>212.8505057813803</v>
       </c>
     </row>
     <row r="34">
@@ -6861,40 +6861,40 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L34" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M34" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S34" t="n">
-        <v>84.81980876651434</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="T34" t="n">
-        <v>84.81980876651434</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="U34" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="W34" t="n">
         <v>34.31465285444516</v>
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>938.1127679116282</v>
+        <v>627.5987120096974</v>
       </c>
       <c r="C35" t="n">
-        <v>938.1127679116282</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="D35" t="n">
-        <v>596.9287682730148</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="E35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602988</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292787</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
         <v>1715.732642722258</v>
@@ -6964,25 +6964,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S35" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T35" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U35" t="n">
-        <v>1266.493077207926</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V35" t="n">
-        <v>942.3720836633275</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W35" t="n">
-        <v>938.1127679116282</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="X35" t="n">
-        <v>938.1127679116282</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="Y35" t="n">
-        <v>938.1127679116282</v>
+        <v>1005.464611381246</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>813.8951292517472</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C36" t="n">
-        <v>624.4828549847109</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7027387457426</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E36" t="n">
-        <v>463.7027387457426</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F36" t="n">
-        <v>303.2750224629867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G36" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
         <v>34.31465285444516</v>
@@ -7016,52 +7016,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>215.5091216889814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L36" t="n">
-        <v>498.4142537443595</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M36" t="n">
-        <v>873.305863297421</v>
+        <v>692.111394462885</v>
       </c>
       <c r="N36" t="n">
-        <v>1276.539627797432</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O36" t="n">
-        <v>1589.672661844326</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P36" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S36" t="n">
-        <v>1536.658373288802</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T36" t="n">
-        <v>1536.658373288802</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U36" t="n">
-        <v>1297.085247616349</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V36" t="n">
-        <v>1054.005529519983</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W36" t="n">
-        <v>1039.53582231642</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="X36" t="n">
-        <v>1039.53582231642</v>
+        <v>263.3188973532204</v>
       </c>
       <c r="Y36" t="n">
-        <v>813.8951292517472</v>
+        <v>212.8505057813803</v>
       </c>
     </row>
     <row r="37">
@@ -7098,49 +7098,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L37" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T37" t="n">
-        <v>334.857675380022</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U37" t="n">
-        <v>43.32097474015927</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V37" t="n">
-        <v>43.32097474015927</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W37" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X37" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1216.944255165456</v>
+        <v>650.3288666801456</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2013285178008</v>
+        <v>650.3288666801456</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2013285178008</v>
+        <v>650.3288666801456</v>
       </c>
       <c r="E38" t="n">
-        <v>863.2013285178008</v>
+        <v>650.3288666801456</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9293591844538</v>
+        <v>650.3288666801456</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H38" t="n">
         <v>34.31465285444516</v>
@@ -7174,22 +7174,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887603007</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193755</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
         <v>1650.639799716936</v>
@@ -7210,16 +7210,16 @@
         <v>1715.732642722258</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="X38" t="n">
-        <v>1594.810154537005</v>
+        <v>1028.194766051694</v>
       </c>
       <c r="Y38" t="n">
-        <v>1594.810154537005</v>
+        <v>1028.194766051694</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>711.3040340828904</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C39" t="n">
-        <v>521.8917598158541</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D39" t="n">
-        <v>361.1116435768859</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E39" t="n">
-        <v>187.5484396983003</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F39" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G39" t="n">
         <v>34.31465285444516</v>
@@ -7253,16 +7253,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K39" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443595</v>
+        <v>304.6946924676439</v>
       </c>
       <c r="M39" t="n">
-        <v>873.305863297421</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N39" t="n">
         <v>1082.820066520717</v>
@@ -7277,28 +7277,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440573</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.958867440573</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U39" t="n">
-        <v>1627.958867440573</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V39" t="n">
-        <v>1384.879149344207</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W39" t="n">
-        <v>1115.480580074498</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="X39" t="n">
-        <v>1115.480580074498</v>
+        <v>351.0926726349061</v>
       </c>
       <c r="Y39" t="n">
-        <v>889.8398870098256</v>
+        <v>125.4519795702337</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C40" t="n">
-        <v>1555.519804255718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D40" t="n">
-        <v>1555.519804255718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E40" t="n">
-        <v>1555.519804255718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.794881312374</v>
+        <v>1011.006200176326</v>
       </c>
       <c r="C41" t="n">
-        <v>1166.794881312374</v>
+        <v>657.2632735286704</v>
       </c>
       <c r="D41" t="n">
-        <v>1166.794881312374</v>
+        <v>657.2632735286704</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5636570076908</v>
+        <v>657.2632735286704</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5636570076908</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G41" t="n">
         <v>369.9489506776823</v>
@@ -7417,10 +7417,10 @@
         <v>253.897506719375</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
@@ -7429,34 +7429,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U41" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V41" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W41" t="n">
-        <v>1357.666194286149</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X41" t="n">
-        <v>1357.666194286149</v>
+        <v>1011.006200176326</v>
       </c>
       <c r="Y41" t="n">
-        <v>1357.666194286149</v>
+        <v>1011.006200176326</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>908.3382686120787</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C42" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443595</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M42" t="n">
-        <v>873.305863297421</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N42" t="n">
-        <v>1276.539627797432</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O42" t="n">
-        <v>1589.672661844326</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P42" t="n">
         <v>1625.19346494006</v>
@@ -7517,25 +7517,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1536.658373288802</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T42" t="n">
         <v>1322.652080056737</v>
       </c>
       <c r="U42" t="n">
-        <v>1322.652080056737</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V42" t="n">
-        <v>1322.652080056737</v>
+        <v>839.9992362879182</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.253510787028</v>
+        <v>570.6006670182095</v>
       </c>
       <c r="X42" t="n">
-        <v>1053.253510787028</v>
+        <v>351.0926726349059</v>
       </c>
       <c r="Y42" t="n">
-        <v>1053.253510787028</v>
+        <v>125.4519795702335</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722258</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722258</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="U43" t="n">
-        <v>1660.279830822096</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V43" t="n">
-        <v>1660.279830822096</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>306.0886035251701</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="C44" t="n">
-        <v>306.0886035251701</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="D44" t="n">
-        <v>306.0886035251701</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G44" t="n">
         <v>34.31465285444516</v>
@@ -7648,7 +7648,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K44" t="n">
         <v>253.8975067193749</v>
@@ -7657,43 +7657,43 @@
         <v>525.5283691389718</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N44" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>1357.666194286149</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V44" t="n">
-        <v>1033.545200741551</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="W44" t="n">
-        <v>692.2356413215841</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="X44" t="n">
-        <v>692.2356413215841</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.0886035251701</v>
+        <v>1139.050666958494</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>745.9717411220387</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C45" t="n">
-        <v>556.5594668550024</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D45" t="n">
-        <v>395.7793506160341</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E45" t="n">
-        <v>222.2161467374486</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F45" t="n">
-        <v>222.2161467374486</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G45" t="n">
-        <v>72.74711316068846</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H45" t="n">
         <v>34.31465285444516</v>
@@ -7727,25 +7727,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>54.40930111025867</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K45" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M45" t="n">
-        <v>712.2060427186984</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N45" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1657.813205638054</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
@@ -7754,25 +7754,25 @@
         <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007116</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T45" t="n">
         <v>1234.878304775051</v>
       </c>
       <c r="U45" t="n">
-        <v>1234.878304775051</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="V45" t="n">
-        <v>1234.878304775051</v>
+        <v>752.2254610062325</v>
       </c>
       <c r="W45" t="n">
-        <v>965.4797355053423</v>
+        <v>482.8268917365239</v>
       </c>
       <c r="X45" t="n">
-        <v>745.9717411220387</v>
+        <v>263.3188973532202</v>
       </c>
       <c r="Y45" t="n">
-        <v>745.9717411220387</v>
+        <v>37.67820428854787</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M46" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N46" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U46" t="n">
-        <v>1576.889614169534</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="V46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8774,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>44.62821923470651</v>
+        <v>44.62821923470675</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -9005,19 +9005,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K15" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>156.379558667041</v>
       </c>
       <c r="M15" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>114.9375340526882</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,7 +9242,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K18" t="n">
         <v>8.64638209049167</v>
@@ -9254,13 +9254,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>297.9622500471687</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4146410504032</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9482,16 +9482,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>207.3553107283658</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>114.9375340526877</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9719,7 +9719,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9728,10 +9728,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>114.9375340526877</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
-        <v>255.2227828913207</v>
+        <v>222.273549863045</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -9956,7 +9956,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9968,7 +9968,7 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>222.2735498630448</v>
+        <v>59.54645836938565</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
@@ -10190,7 +10190,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
         <v>8.64638209049167</v>
@@ -10205,7 +10205,7 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>242.5711743638673</v>
+        <v>222.273549863045</v>
       </c>
       <c r="P30" t="n">
         <v>206.3638740786793</v>
@@ -10433,7 +10433,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>44.62821923470698</v>
+        <v>44.62821923470651</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K36" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10682,7 +10682,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>10.68754955674435</v>
+        <v>193.7122655512252</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10907,13 +10907,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>240.3045437566416</v>
+        <v>44.62821923470651</v>
       </c>
       <c r="M39" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>114.9375340526882</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -11080,7 +11080,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476183</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
@@ -11156,7 +11156,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>10.68754955674435</v>
+        <v>30.98517405756563</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -11299,7 +11299,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>210.0462273461145</v>
       </c>
       <c r="L44" t="n">
         <v>270.6444670286918</v>
@@ -11378,7 +11378,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.1808494245539</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23260,16 +23260,16 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>15.76544517947951</v>
+        <v>120.0286647959877</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
         <v>417.3985592667085</v>
@@ -23278,7 +23278,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>168.4976559200375</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>147.9743432409925</v>
@@ -23357,7 +23357,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>15.24703649414204</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23436,10 +23436,10 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>93.00459219947584</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R13" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.0023972007068</v>
+        <v>147.6489937016422</v>
       </c>
       <c r="U13" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23500,13 +23500,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>216.8773565064076</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>108.8604710608892</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23579,22 +23579,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>28.90770316800277</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>144.6444273212306</v>
       </c>
       <c r="H15" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>224.1841888012565</v>
+        <v>147.6489937016422</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
-        <v>145.3842603086282</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>235.6920533331103</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
@@ -23740,16 +23740,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
         <v>185.5090622027478</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>178.8672507836808</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>183.6552032631487</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,10 +23867,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>221.4582282608805</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>288.6213336334641</v>
@@ -23952,7 +23952,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.1005996173323</v>
+        <v>213.775511989721</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.0156079746362</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>185.8594546420657</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.0353723969745</v>
@@ -24053,7 +24053,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>120.726663254738</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -24068,7 +24068,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>86.52454094903494</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>171.7556116853853</v>
       </c>
       <c r="T22" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>215.2679301343996</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>290.3107070893353</v>
@@ -24214,7 +24214,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
@@ -24223,7 +24223,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>185.5090622027478</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>213.838235257609</v>
       </c>
       <c r="V23" t="n">
-        <v>285.1493488776394</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>86.52454094903506</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -24299,13 +24299,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>30.34225936650637</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
@@ -24387,7 +24387,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R25" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>224.1841888012565</v>
@@ -24420,13 +24420,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>165.4779332534541</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>159.2302957609866</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24457,7 +24457,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>198.8188010612365</v>
+        <v>116.8712426302062</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>184.1882356046044</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -24542,7 +24542,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>173.4205784779039</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>165.4779332534541</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>213.775511989721</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24691,7 +24691,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>203.7543702556992</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
         <v>194.7117974622146</v>
@@ -24736,16 +24736,16 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>116.1379738818802</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>173.4205784779038</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -24767,7 +24767,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -24779,7 +24779,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>121.8638641836779</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24861,7 +24861,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J31" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R31" t="n">
-        <v>174.3941919203111</v>
+        <v>121.9656148044398</v>
       </c>
       <c r="S31" t="n">
-        <v>221.7093479362395</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
         <v>221.0023972007068</v>
@@ -24897,13 +24897,13 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24925,10 +24925,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>417.3985592667085</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>213.5977690266227</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.8195587440382</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>208.9397306605973</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>173.4205784779038</v>
       </c>
     </row>
     <row r="34">
@@ -25098,7 +25098,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J34" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>238.6212292805156</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>216.9573035902707</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>134.3331908791153</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>333.6797412315846</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>252.3795734454835</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>173.4205784779038</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.7006619981111</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25335,7 +25335,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25365,16 +25365,16 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>213.775511989721</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
         <v>337.7721596422273</v>
@@ -25402,13 +25402,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>139.8224424242699</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>185.5090622027478</v>
@@ -25450,13 +25450,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>240.0694509913054</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>86.52454094903506</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>155.0963333855042</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>7.846470890097748</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25560,7 +25560,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.0550137836253</v>
@@ -25572,7 +25572,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R40" t="n">
         <v>174.3941919203111</v>
@@ -25605,10 +25605,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>236.1927565175929</v>
       </c>
       <c r="W40" t="n">
         <v>290.3107070893353</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.1246405337963</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>118.7580700175352</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
@@ -25684,16 +25684,16 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.28440464446584</v>
+        <v>86.52454094903528</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25809,7 +25809,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R43" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
-        <v>224.1841888012565</v>
+        <v>216.9573035902706</v>
       </c>
       <c r="T43" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>233.7230498523039</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25873,13 +25873,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>102.4227008976185</v>
+        <v>98.38806700535008</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
         <v>194.7117974622146</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>173.4205784779041</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>80.24828696828274</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,10 +26000,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26040,13 +26040,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I46" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J46" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R46" t="n">
-        <v>36.93959365311451</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
         <v>224.1841888012565</v>
@@ -26079,10 +26079,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213336334641</v>
+        <v>236.1927565175928</v>
       </c>
       <c r="V46" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523382.4364564935</v>
+        <v>523382.4364564933</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>523382.4364564932</v>
+        <v>523382.4364564933</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>523382.4364564932</v>
+        <v>523382.4364564933</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523382.4364564935</v>
+        <v>523382.4364564933</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661448.9963823449</v>
+        <v>661448.9963823446</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823446</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="D2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.996382345</v>
       </c>
       <c r="E2" t="n">
         <v>375693.1876893953</v>
       </c>
       <c r="F2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="G2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893951</v>
       </c>
       <c r="H2" t="n">
         <v>375693.1876893953</v>
       </c>
       <c r="I2" t="n">
+        <v>375693.1876893952</v>
+      </c>
+      <c r="J2" t="n">
+        <v>375693.1876893952</v>
+      </c>
+      <c r="K2" t="n">
         <v>375693.1876893953</v>
-      </c>
-      <c r="J2" t="n">
-        <v>375693.1876893953</v>
-      </c>
-      <c r="K2" t="n">
-        <v>375693.1876893952</v>
       </c>
       <c r="L2" t="n">
         <v>375693.1876893953</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174924</v>
+        <v>497053.1518174926</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="C4" t="n">
         <v>403791.6199395953</v>
       </c>
       <c r="D4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="E4" t="n">
         <v>22779.9226089727</v>
@@ -26459,7 +26459,7 @@
         <v>22779.9226089727</v>
       </c>
       <c r="P4" t="n">
-        <v>22779.9226089727</v>
+        <v>22779.92260897269</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="F5" t="n">
         <v>36091.33751189046</v>
       </c>
       <c r="G5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="H5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="K5" t="n">
         <v>36091.33751189046</v>
@@ -26502,16 +26502,16 @@
         <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189046</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224029.7764427496</v>
+        <v>223985.1126006975</v>
       </c>
       <c r="C6" t="n">
-        <v>224029.7764427494</v>
+        <v>223985.1126006976</v>
       </c>
       <c r="D6" t="n">
-        <v>224029.7764427493</v>
+        <v>223985.1126006978</v>
       </c>
       <c r="E6" t="n">
-        <v>-180231.2242489602</v>
+        <v>-189801.0817141107</v>
       </c>
       <c r="F6" t="n">
-        <v>316821.9275685323</v>
+        <v>307252.0701033818</v>
       </c>
       <c r="G6" t="n">
-        <v>316821.9275685323</v>
+        <v>307252.0701033817</v>
       </c>
       <c r="H6" t="n">
-        <v>316821.9275685322</v>
+        <v>307252.0701033819</v>
       </c>
       <c r="I6" t="n">
-        <v>316821.9275685322</v>
+        <v>307252.0701033818</v>
       </c>
       <c r="J6" t="n">
-        <v>316821.9275685322</v>
+        <v>307252.0701033818</v>
       </c>
       <c r="K6" t="n">
-        <v>316821.9275685321</v>
+        <v>307252.0701033819</v>
       </c>
       <c r="L6" t="n">
-        <v>316821.9275685321</v>
+        <v>307252.0701033819</v>
       </c>
       <c r="M6" t="n">
-        <v>209930.0681942928</v>
+        <v>200360.2107291426</v>
       </c>
       <c r="N6" t="n">
-        <v>316821.9275685322</v>
+        <v>307252.070103382</v>
       </c>
       <c r="O6" t="n">
-        <v>316821.9275685321</v>
+        <v>307252.0701033818</v>
       </c>
       <c r="P6" t="n">
-        <v>316821.9275685321</v>
+        <v>307252.0701033819</v>
       </c>
     </row>
   </sheetData>
@@ -26776,10 +26776,10 @@
         <v>459.2752909409236</v>
       </c>
       <c r="O3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="P3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
     </row>
     <row r="4">
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="F4" t="n">
         <v>428.9331606805646</v>
       </c>
       <c r="G4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="H4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="I4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="K4" t="n">
         <v>428.9331606805646</v>
@@ -26822,7 +26822,7 @@
         <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
         <v>428.9331606805646</v>
@@ -26831,7 +26831,7 @@
         <v>428.9331606805645</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,19 +31755,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K11" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M11" t="n">
         <v>324.1998891675596</v>
@@ -31776,10 +31776,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O11" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q11" t="n">
         <v>199.3831741692328</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H12" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
@@ -31852,10 +31852,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O12" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P12" t="n">
         <v>188.640826575339</v>
@@ -31864,13 +31864,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U12" t="n">
         <v>0.06499178645390431</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H13" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J13" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31931,7 +31931,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
@@ -31940,16 +31940,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R13" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U13" t="n">
         <v>0.0451746187810745</v>
@@ -31992,19 +31992,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K14" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M14" t="n">
         <v>324.1998891675596</v>
@@ -32013,10 +32013,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O14" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q14" t="n">
         <v>199.3831741692328</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H15" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
@@ -32089,10 +32089,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O15" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P15" t="n">
         <v>188.640826575339</v>
@@ -32101,13 +32101,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S15" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U15" t="n">
         <v>0.06499178645390431</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H16" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J16" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32168,7 +32168,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
@@ -32177,16 +32177,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R16" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U16" t="n">
         <v>0.0451746187810745</v>
@@ -32229,19 +32229,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H17" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
         <v>324.1998891675596</v>
@@ -32250,10 +32250,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O17" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
         <v>199.3831741692328</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H18" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
@@ -32326,10 +32326,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O18" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P18" t="n">
         <v>188.640826575339</v>
@@ -32338,13 +32338,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S18" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
         <v>0.06499178645390431</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H19" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I19" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32405,7 +32405,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N19" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O19" t="n">
         <v>117.0624954680243</v>
@@ -32414,16 +32414,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R19" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
         <v>0.0451746187810745</v>
@@ -32466,19 +32466,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K20" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M20" t="n">
         <v>324.1998891675596</v>
@@ -32487,10 +32487,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q20" t="n">
         <v>199.3831741692328</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H21" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
@@ -32563,10 +32563,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O21" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P21" t="n">
         <v>188.640826575339</v>
@@ -32575,13 +32575,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U21" t="n">
         <v>0.06499178645390431</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H22" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J22" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
@@ -32642,7 +32642,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O22" t="n">
         <v>117.0624954680243</v>
@@ -32651,16 +32651,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U22" t="n">
         <v>0.0451746187810745</v>
@@ -32703,19 +32703,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H23" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J23" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
         <v>324.1998891675596</v>
@@ -32724,10 +32724,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P23" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
         <v>199.3831741692328</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H24" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
@@ -32800,10 +32800,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O24" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P24" t="n">
         <v>188.640826575339</v>
@@ -32812,13 +32812,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S24" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
         <v>0.06499178645390431</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H25" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I25" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32879,7 +32879,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N25" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O25" t="n">
         <v>117.0624954680243</v>
@@ -32888,16 +32888,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R25" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S25" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
         <v>0.0451746187810745</v>
@@ -32940,19 +32940,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H26" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J26" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K26" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M26" t="n">
         <v>324.1998891675596</v>
@@ -32961,10 +32961,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O26" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P26" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q26" t="n">
         <v>199.3831741692328</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H27" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I27" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
@@ -33037,10 +33037,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N27" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O27" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P27" t="n">
         <v>188.640826575339</v>
@@ -33049,13 +33049,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S27" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T27" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U27" t="n">
         <v>0.06499178645390431</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H28" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I28" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L28" t="n">
         <v>123.1309525909486</v>
@@ -33116,7 +33116,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N28" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O28" t="n">
         <v>117.0624954680243</v>
@@ -33125,16 +33125,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R28" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S28" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T28" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
         <v>0.0451746187810745</v>
@@ -33177,19 +33177,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H29" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J29" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K29" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M29" t="n">
         <v>324.1998891675596</v>
@@ -33198,10 +33198,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O29" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P29" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q29" t="n">
         <v>199.3831741692328</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H30" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I30" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
@@ -33274,10 +33274,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N30" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O30" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P30" t="n">
         <v>188.640826575339</v>
@@ -33286,13 +33286,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S30" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T30" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U30" t="n">
         <v>0.06499178645390431</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H31" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I31" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L31" t="n">
         <v>123.1309525909486</v>
@@ -33353,7 +33353,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N31" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O31" t="n">
         <v>117.0624954680243</v>
@@ -33362,16 +33362,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R31" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S31" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T31" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
         <v>0.0451746187810745</v>
@@ -33414,19 +33414,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H32" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J32" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K32" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M32" t="n">
         <v>324.1998891675596</v>
@@ -33435,10 +33435,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O32" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P32" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q32" t="n">
         <v>199.3831741692328</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H33" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I33" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
@@ -33511,10 +33511,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N33" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O33" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P33" t="n">
         <v>188.640826575339</v>
@@ -33523,13 +33523,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S33" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T33" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U33" t="n">
         <v>0.06499178645390431</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H34" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I34" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L34" t="n">
         <v>123.1309525909486</v>
@@ -33590,7 +33590,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N34" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O34" t="n">
         <v>117.0624954680243</v>
@@ -33599,16 +33599,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R34" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S34" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T34" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
         <v>0.0451746187810745</v>
@@ -33651,19 +33651,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H35" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J35" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K35" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
         <v>324.1998891675596</v>
@@ -33672,10 +33672,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O35" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P35" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
         <v>199.3831741692328</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H36" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I36" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
@@ -33748,10 +33748,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N36" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O36" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P36" t="n">
         <v>188.640826575339</v>
@@ -33760,13 +33760,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S36" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T36" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
         <v>0.06499178645390431</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H37" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I37" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
@@ -33827,7 +33827,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N37" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O37" t="n">
         <v>117.0624954680243</v>
@@ -33836,16 +33836,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R37" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S37" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T37" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
         <v>0.0451746187810745</v>
@@ -33888,19 +33888,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H38" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I38" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J38" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K38" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L38" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M38" t="n">
         <v>324.1998891675596</v>
@@ -33909,10 +33909,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O38" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P38" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q38" t="n">
         <v>199.3831741692328</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H39" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I39" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
@@ -33985,10 +33985,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N39" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O39" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P39" t="n">
         <v>188.640826575339</v>
@@ -33997,13 +33997,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S39" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T39" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
         <v>0.06499178645390431</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H40" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I40" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L40" t="n">
         <v>123.1309525909486</v>
@@ -34064,7 +34064,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N40" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O40" t="n">
         <v>117.0624954680243</v>
@@ -34073,16 +34073,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R40" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S40" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T40" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
         <v>0.0451746187810745</v>
@@ -34125,43 +34125,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H41" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I41" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J41" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K41" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L41" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N41" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O41" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P41" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q41" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R41" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S41" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T41" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U41" t="n">
         <v>0.1477066262322567</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H42" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I42" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J42" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K42" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L42" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M42" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N42" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O42" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P42" t="n">
         <v>188.640826575339</v>
@@ -34234,16 +34234,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R42" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S42" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T42" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H43" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I43" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J43" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K43" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L43" t="n">
         <v>123.1309525909486</v>
@@ -34301,7 +34301,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N43" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O43" t="n">
         <v>117.0624954680243</v>
@@ -34310,19 +34310,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R43" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S43" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T43" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,43 +34362,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H44" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I44" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J44" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K44" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L44" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M44" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N44" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O44" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P44" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q44" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R44" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S44" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T44" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U44" t="n">
         <v>0.1477066262322567</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H45" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I45" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J45" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K45" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L45" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M45" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N45" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O45" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P45" t="n">
         <v>188.640826575339</v>
@@ -34471,16 +34471,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R45" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S45" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T45" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H46" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I46" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J46" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K46" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L46" t="n">
         <v>123.1309525909486</v>
@@ -34538,7 +34538,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N46" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O46" t="n">
         <v>117.0624954680243</v>
@@ -34547,19 +34547,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R46" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S46" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T46" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M11" t="n">
         <v>334.4622543336424</v>
@@ -35424,13 +35424,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K12" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>90.0864351299621</v>
+        <v>90.08643512996237</v>
       </c>
       <c r="M12" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O12" t="n">
         <v>316.2959939867616</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M13" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P13" t="n">
         <v>19.62327613144092</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M14" t="n">
         <v>334.4622543336424</v>
@@ -35661,13 +35661,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518971</v>
+        <v>201.8377745622966</v>
       </c>
       <c r="M15" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N15" t="n">
-        <v>211.6305083063595</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O15" t="n">
         <v>316.2959939867616</v>
@@ -35746,7 +35746,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M16" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P16" t="n">
         <v>19.62327613144092</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K17" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L17" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M17" t="n">
         <v>334.4622543336424</v>
@@ -35898,13 +35898,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O17" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P17" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
-        <v>407.306832828294</v>
+        <v>394.6552243008401</v>
       </c>
       <c r="O18" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6066905802593</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M19" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P19" t="n">
         <v>19.62327613144092</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K20" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M20" t="n">
         <v>334.4622543336424</v>
@@ -36135,13 +36135,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518971</v>
+        <v>252.8135266236214</v>
       </c>
       <c r="M21" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N21" t="n">
-        <v>211.630508306359</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867616</v>
@@ -36220,7 +36220,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M22" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P22" t="n">
         <v>19.62327613144092</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K23" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M23" t="n">
         <v>334.4622543336424</v>
@@ -36372,13 +36372,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P23" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M24" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>211.630508306359</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867616</v>
+        <v>283.3467609584859</v>
       </c>
       <c r="P24" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,19 +36518,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M25" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P25" t="n">
         <v>19.62327613144092</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K26" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286318</v>
       </c>
       <c r="L26" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M26" t="n">
         <v>334.4622543336424</v>
@@ -36609,13 +36609,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O26" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P26" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M27" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
-        <v>283.3467609584857</v>
+        <v>120.6196694648265</v>
       </c>
       <c r="P27" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,19 +36755,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M28" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P28" t="n">
         <v>19.62327613144092</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K29" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L29" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M29" t="n">
         <v>334.4622543336424</v>
@@ -36846,13 +36846,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O29" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P29" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M30" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N30" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
-        <v>303.6443854593081</v>
+        <v>283.3467609584859</v>
       </c>
       <c r="P30" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,19 +36992,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M31" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P31" t="n">
         <v>19.62327613144092</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K32" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L32" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M32" t="n">
         <v>334.4622543336424</v>
@@ -37083,13 +37083,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O32" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P32" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K33" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
-        <v>90.08643512996257</v>
+        <v>90.08643512996213</v>
       </c>
       <c r="M33" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N33" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O33" t="n">
         <v>316.2959939867616</v>
@@ -37168,7 +37168,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M34" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P34" t="n">
         <v>19.62327613144092</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K35" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L35" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M35" t="n">
         <v>334.4622543336424</v>
@@ -37320,13 +37320,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P35" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M36" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N36" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>35.87959908660044</v>
+        <v>218.9043150810814</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M37" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P37" t="n">
         <v>19.62327613144092</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K38" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L38" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M38" t="n">
         <v>334.4622543336424</v>
@@ -37557,13 +37557,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O38" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P38" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K39" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L39" t="n">
-        <v>285.7627596518971</v>
+        <v>90.08643512996213</v>
       </c>
       <c r="M39" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
-        <v>211.6305083063595</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867616</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,19 +37703,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M40" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N40" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P40" t="n">
         <v>19.62327613144092</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K41" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L41" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M41" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P41" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q41" t="n">
         <v>65.75034647002272</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L42" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N42" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O42" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P42" t="n">
-        <v>35.87959908660044</v>
+        <v>56.17722358742178</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L43" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M43" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N43" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O43" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P43" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286313</v>
       </c>
       <c r="L44" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N44" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P44" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M45" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N45" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063587</v>
       </c>
       <c r="O45" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P45" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.50448190323635</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L46" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M46" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N46" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O46" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
